--- a/ValueSet-present-not-present-undetermined-other.xlsx
+++ b/ValueSet-present-not-present-undetermined-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-14T14:19:42+00:00</t>
+    <t>2021-11-25T00:25:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-present-not-present-undetermined-other.xlsx
+++ b/ValueSet-present-not-present-undetermined-other.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -57,19 +57,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T00:25:38+01:00</t>
+    <t>2021-11-30T16:36:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
-  </si>
-  <si>
-    <t>Charité - Universitätsmedizin Berlin</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -257,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -333,44 +324,34 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -392,58 +373,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-present-not-present-undetermined-other.xlsx
+++ b/ValueSet-present-not-present-undetermined-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T16:36:32+00:00</t>
+    <t>2021-12-06T10:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-present-not-present-undetermined-other.xlsx
+++ b/ValueSet-present-not-present-undetermined-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-06T10:19:03+00:00</t>
+    <t>2021-12-06T10:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-present-not-present-undetermined-other.xlsx
+++ b/ValueSet-present-not-present-undetermined-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-06T10:42:28+00:00</t>
+    <t>2021-12-06T20:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-present-not-present-undetermined-other.xlsx
+++ b/ValueSet-present-not-present-undetermined-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-06T20:57:44+00:00</t>
+    <t>2021-12-07T17:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-present-not-present-undetermined-other.xlsx
+++ b/ValueSet-present-not-present-undetermined-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-07T17:21:29+00:00</t>
+    <t>2021-12-10T11:47:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
